--- a/ResultadoEleicoesDistritos/VISEU_SÁTÃO.xlsx
+++ b/ResultadoEleicoesDistritos/VISEU_SÁTÃO.xlsx
@@ -597,64 +597,64 @@
         <v>3660</v>
       </c>
       <c r="H2" t="n">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="I2" t="n">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="J2" t="n">
-        <v>1536</v>
+        <v>1468</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="M2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N2" t="n">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S2" t="n">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="T2" t="n">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="U2" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="V2" t="n">
-        <v>2283</v>
+        <v>2379</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>2351</v>
+        <v>2345</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
